--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -295,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -329,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,12 +511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -520,7 +527,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -589,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -612,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -635,7 +642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -645,14 +652,20 @@
       <c r="C6" s="4">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.19097222222222221</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -665,7 +678,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -678,7 +691,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -691,7 +704,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,7 +717,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -717,7 +730,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -730,7 +743,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -743,7 +756,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -756,7 +769,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -769,7 +782,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -782,7 +795,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,7 +808,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -808,7 +821,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -821,7 +834,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -834,7 +847,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -847,7 +860,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,26 +873,26 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -893,24 +906,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -514,7 +514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -653,7 +655,7 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="D6" s="4">
-        <v>0.19097222222222221</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -662,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,11 +674,21 @@
       <c r="B7" s="3">
         <v>40641</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -879,11 +891,11 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,7 +904,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -514,9 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -678,13 +676,13 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="D7" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
         <v>25</v>
@@ -891,7 +889,7 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
@@ -904,7 +902,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,11 +695,21 @@
       <c r="B8" s="3">
         <v>40644</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -889,11 +899,11 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -902,7 +912,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -699,16 +702,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D8" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,11 +721,21 @@
       <c r="B9" s="3">
         <v>40645</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -899,11 +912,11 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +925,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -744,11 +744,21 @@
       <c r="B10" s="3">
         <v>40646</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -760,8 +770,12 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -773,8 +787,12 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -786,8 +804,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -799,8 +821,12 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -812,8 +838,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -822,11 +852,21 @@
       <c r="B16" s="3">
         <v>40654</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -835,11 +875,21 @@
       <c r="B17" s="3">
         <v>40655</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -851,8 +901,12 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -864,8 +918,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -877,8 +935,12 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -890,8 +952,12 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -903,8 +969,12 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="6" t="s">
@@ -912,11 +982,11 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +995,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>45.5</v>
+        <v>130</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -748,16 +748,16 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D10" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,11 +982,11 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>130</v>
+        <v>130.75</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -767,9 +767,15 @@
       <c r="B11" s="3">
         <v>40647</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="2">
         <v>8</v>
       </c>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -771,7 +771,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D11" s="4">
-        <v>0.19791666666666666</v>
+        <v>0.20486111111111113</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>15</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>130.75</v>
+        <v>131</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -790,14 +793,20 @@
       <c r="B12" s="3">
         <v>40648</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="2">
         <v>7</v>
       </c>
       <c r="G12" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,7 +1001,7 @@
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,7 +1010,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>131</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -794,19 +791,19 @@
         <v>40648</v>
       </c>
       <c r="C12" s="4">
-        <v>0.34375</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="D12" s="4">
         <v>0.20833333333333334</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
         <v>7</v>
       </c>
       <c r="G12" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,7 +998,7 @@
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>2.6666666666666665</v>
+        <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,7 +1007,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>131.66666666666666</v>
+        <v>131.58333333333334</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -813,14 +813,20 @@
       <c r="B13" s="3">
         <v>40651</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="4">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,14 +836,20 @@
       <c r="B14" s="3">
         <v>40652</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,7 +1010,7 @@
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>2.5833333333333335</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1007,7 +1019,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>131.58333333333334</v>
+        <v>132</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,12 +512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -530,7 +528,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -576,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -599,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -645,7 +643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -668,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -691,7 +689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -714,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -760,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -783,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,7 +804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -852,24 +850,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3">
         <v>40653</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -892,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -932,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -949,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -966,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1000,26 +1004,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -1033,24 +1037,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -515,7 +515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -926,11 +928,17 @@
       <c r="B18" s="3">
         <v>40658</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1010,7 +1018,7 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
@@ -1023,7 +1031,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>131.5</v>
+        <v>130.5</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -860,7 +860,7 @@
         <v>40653</v>
       </c>
       <c r="C15" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D15" s="4">
         <v>0.25</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -955,10 +955,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1018,11 +1018,11 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G2:G22)/60)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F23:G23)</f>
-        <v>130.5</v>
+        <v>129.5</v>
       </c>
       <c r="G24" s="9"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -516,7 +516,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -951,9 +951,15 @@
       <c r="B19" s="3">
         <v>40659</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="2">
         <v>6</v>
       </c>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -97,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +212,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -876,48 +891,48 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="8">
         <v>40654</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="8">
         <v>40655</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -929,10 +944,10 @@
         <v>40658</v>
       </c>
       <c r="C18" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D18" s="4">
-        <v>0.125</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -952,16 +967,16 @@
         <v>40659</v>
       </c>
       <c r="C19" s="4">
-        <v>0.38194444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2">
         <v>30</v>
@@ -974,11 +989,17 @@
       <c r="B20" s="3">
         <v>40660</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -991,9 +1012,15 @@
       <c r="B21" s="3">
         <v>40661</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="2">
         <v>8</v>
       </c>
@@ -1008,9 +1035,15 @@
       <c r="B22" s="3">
         <v>40662</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="2">
         <v>7</v>
       </c>
@@ -1027,7 +1060,7 @@
         <v>125</v>
       </c>
       <c r="G23" s="6">
-        <f>(SUM(G2:G2:G22)/60)</f>
+        <f>(SUM(G2:G22)/60)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -1035,11 +1068,11 @@
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
         <v>129.5</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -352,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,14 +529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -545,7 +547,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -614,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -637,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,7 +662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -683,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -706,7 +708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -729,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -752,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -775,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -798,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,7 +823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -844,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -867,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -890,7 +892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
@@ -913,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -936,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -982,7 +984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1013,10 +1015,10 @@
         <v>40661</v>
       </c>
       <c r="C21" s="4">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="4">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -1028,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
@@ -1084,24 +1086,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,7 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,7 +352,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -547,7 +545,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -593,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -616,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -639,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -662,7 +660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -685,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -708,7 +706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -731,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -754,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -777,7 +775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -800,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -846,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -869,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -892,7 +890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
@@ -915,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -938,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -961,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -984,7 +982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1018,10 +1016,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="2">
         <v>8</v>
@@ -1030,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
@@ -1086,24 +1084,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1016,7 +1016,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -1025,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1039,16 +1039,16 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>0.125</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G22)/60)</f>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="G24" s="12"/>
     </row>

--- a/Horas/Abril.xlsx
+++ b/Horas/Abril.xlsx
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -947,13 +947,13 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D18" s="4">
-        <v>0.13194444444444445</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F23" s="6">
         <f>SUM(F2:F22)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="6">
         <f>(SUM(G2:G22)/60)</f>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
-        <v>128.5</v>
+        <v>129.5</v>
       </c>
       <c r="G24" s="12"/>
     </row>
